--- a/data/trans_orig/P14C16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8A142D-3915-40CC-8169-6F8E741CA98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EDEA4F-BE01-42AF-8DEE-DD558A874E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50AE7321-8BF7-470A-BB3D-7C654F4CD1DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{134B554A-076A-4D73-8B99-623156E18F78}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="184">
   <si>
     <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>80,03%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>74,3%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>17,65%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,26%</t>
+    <t>12,07%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>15,27%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,79 +164,79 @@
     <t>77,49%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>11,18%</t>
+    <t>12,65%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -245,142 +245,142 @@
     <t>87,3%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>81,23%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>21,11%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>19,87%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>7,44%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -389,196 +389,202 @@
     <t>81,59%</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>87,87%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>12,53%</t>
+    <t>14,23%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>5,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -993,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C9A04C-DF09-4073-9C43-1F33608425F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DC9F12-B36F-478A-883A-8DBBD90560D8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2180,10 +2186,10 @@
         <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2204,13 @@
         <v>1839</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2213,13 +2219,13 @@
         <v>1049</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2228,13 +2234,13 @@
         <v>2888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2261,7 @@
         <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2270,7 +2276,7 @@
         <v>109</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2285,7 +2291,7 @@
         <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2359,13 @@
         <v>135460</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -2368,13 +2374,13 @@
         <v>228999</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>344</v>
@@ -2383,13 +2389,13 @@
         <v>364459</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2410,13 @@
         <v>22407</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -2419,13 +2425,13 @@
         <v>34926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2434,13 +2440,13 @@
         <v>57333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2461,13 @@
         <v>5686</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2470,13 +2476,13 @@
         <v>9003</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -2485,13 +2491,13 @@
         <v>14689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2553,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EDEA4F-BE01-42AF-8DEE-DD558A874E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{934DE1BA-70A6-4953-A50A-696693D83A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{134B554A-076A-4D73-8B99-623156E18F78}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B35904C-EBA1-4299-AEB1-F9D1EC34F242}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="184">
-  <si>
-    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="180">
+  <si>
+    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2016 (Tasa respuesta: 6,3%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>80,03%</t>
   </si>
   <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>74,3%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>17,65%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,13 +137,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,07%</t>
+    <t>11,96%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>15,25%</t>
+    <t>15,29%</t>
   </si>
   <si>
     <t>3,56%</t>
@@ -152,7 +152,7 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>9,5%</t>
+    <t>9,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,427 +164,415 @@
     <t>77,49%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>6,18%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>5,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -999,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DC9F12-B36F-478A-883A-8DBBD90560D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1064C20-64D4-40C2-8477-3C9535B74FE2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1565,13 +1553,13 @@
         <v>79643</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1586,13 +1574,13 @@
         <v>2093</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1601,13 +1589,13 @@
         <v>10240</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1616,13 +1604,13 @@
         <v>12333</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,13 +1625,13 @@
         <v>1836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1652,13 +1640,13 @@
         <v>1921</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1667,13 +1655,13 @@
         <v>3757</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1729,7 +1717,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1741,13 +1729,13 @@
         <v>19948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -1756,13 +1744,13 @@
         <v>46005</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -1771,13 +1759,13 @@
         <v>65954</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1780,13 @@
         <v>2202</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1807,13 +1795,13 @@
         <v>2169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1822,13 +1810,13 @@
         <v>4370</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,10 +1834,10 @@
         <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1858,13 +1846,13 @@
         <v>1039</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1873,13 +1861,13 @@
         <v>1039</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,7 +1923,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1947,13 +1935,13 @@
         <v>15610</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -1962,13 +1950,13 @@
         <v>34041</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -1977,13 +1965,13 @@
         <v>49651</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1986,13 @@
         <v>3521</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2013,13 +2001,13 @@
         <v>1103</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2028,13 +2016,13 @@
         <v>4624</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,10 +2040,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2064,13 +2052,13 @@
         <v>2233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2079,13 +2067,13 @@
         <v>2233</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2129,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2141,13 @@
         <v>11119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2168,13 +2156,13 @@
         <v>28856</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -2183,13 +2171,13 @@
         <v>39975</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2192,13 @@
         <v>1839</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2219,13 +2207,13 @@
         <v>1049</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2234,13 +2222,13 @@
         <v>2888</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,10 +2246,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2273,10 +2261,10 @@
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2288,10 +2276,10 @@
         <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2347,13 @@
         <v>135460</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>215</v>
@@ -2374,13 +2362,13 @@
         <v>228999</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>344</v>
@@ -2389,13 +2377,13 @@
         <v>364459</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2398,13 @@
         <v>22407</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -2425,13 +2413,13 @@
         <v>34926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -2440,13 +2428,13 @@
         <v>57333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2449,13 @@
         <v>5686</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2476,13 +2464,13 @@
         <v>9003</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -2491,13 +2479,13 @@
         <v>14689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2541,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
